--- a/public/users.xlsx
+++ b/public/users.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaree\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF9AC33-665E-46F4-87D9-FDB84DF97B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{07BFC873-6D7C-4001-B48B-7B65D5328514}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,26 +28,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
-  <si>
-    <t>UserName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="41">
   <si>
     <t>Role</t>
   </si>
   <si>
-    <t>Email Id</t>
-  </si>
-  <si>
     <t>Tenant</t>
   </si>
   <si>
-    <t>Sub-Tenant</t>
-  </si>
-  <si>
-    <t>Last Login</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -157,12 +139,24 @@
   </si>
   <si>
     <t>Inactive</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Email id</t>
+  </si>
+  <si>
+    <t>Sub tenant</t>
+  </si>
+  <si>
+    <t>Last login</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -317,7 +311,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -511,297 +505,537 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43E2FCF-6E8E-4890-BF05-475A0D247311}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="26.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E18" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F18" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E19" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F19" t="s">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E20" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F20" t="s">
         <v>15</v>
       </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E21" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F21" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="G21" t="s">
         <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{CCAE36F0-8980-4BD9-82E4-765C0E724D94}"/>
-    <hyperlink ref="C3:C11" r:id="rId2" display="jareentaj.syed@algonox.com" xr:uid="{31B4A668-6F1B-4866-84FD-F5273612CB15}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{BCDC9204-10EA-467F-8B94-1811526DC56E}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{3E920863-CA3B-4728-B453-124CBDB48F61}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{786C9630-897C-4CB0-8F8D-F731240B2C8E}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{4EDE1F0C-B15E-4C73-945A-82F520ACF0DD}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{45EBF469-03D2-4194-9D26-83AE3040EE08}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{E197BF40-D98F-4674-A091-8E4A15D889CE}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{D377BA8E-E4E1-48B3-952C-FEC7F7049200}"/>
-    <hyperlink ref="C9" r:id="rId10" xr:uid="{7B9823B0-2C53-49E2-A359-60E6B6A9A8E5}"/>
-    <hyperlink ref="C10" r:id="rId11" xr:uid="{8FFD5253-F3A3-4663-8A4B-3F0B990CBCCA}"/>
+    <hyperlink ref="C10" r:id="rId1"/>
+    <hyperlink ref="C9" r:id="rId2"/>
+    <hyperlink ref="C11" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C5" r:id="rId7"/>
+    <hyperlink ref="C4" r:id="rId8"/>
+    <hyperlink ref="C3" r:id="rId9"/>
+    <hyperlink ref="C3:C11" r:id="rId10" display="jareentaj.syed@algonox.com"/>
+    <hyperlink ref="C2" r:id="rId11"/>
+    <hyperlink ref="C12" r:id="rId12"/>
+    <hyperlink ref="C13" r:id="rId13" display="jareentaj.syed@algonox.com"/>
+    <hyperlink ref="C14" r:id="rId14" display="jareentaj.syed@algonox.com"/>
+    <hyperlink ref="C15" r:id="rId15" display="jareentaj.syed@algonox.com"/>
+    <hyperlink ref="C16" r:id="rId16" display="jareentaj.syed@algonox.com"/>
+    <hyperlink ref="C17" r:id="rId17" display="jareentaj.syed@algonox.com"/>
+    <hyperlink ref="C18" r:id="rId18" display="jareentaj.syed@algonox.com"/>
+    <hyperlink ref="C19" r:id="rId19" display="jareentaj.syed@algonox.com"/>
+    <hyperlink ref="C20" r:id="rId20" display="jareentaj.syed@algonox.com"/>
+    <hyperlink ref="C21" r:id="rId21" display="jareentaj.syed@algonox.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/users.xlsx
+++ b/public/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaree\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F37E72-D0D1-4FAE-B6E2-1AB506C11A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852DC60D-CFA2-4E6F-9EE9-6581137628B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{07BFC873-6D7C-4001-B48B-7B65D5328514}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
-  <si>
-    <t>UserName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
   <si>
     <t>Role</t>
   </si>
@@ -45,27 +42,15 @@
     <t>Email Id</t>
   </si>
   <si>
-    <t>Tenant</t>
-  </si>
-  <si>
-    <t>Sub-Tenant</t>
-  </si>
-  <si>
     <t>Last Login</t>
   </si>
   <si>
     <t>Jareen</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>jareentaj.syed@algonox.com</t>
   </si>
   <si>
-    <t>Jareentaj</t>
-  </si>
-  <si>
     <t>10:34AM</t>
   </si>
   <si>
@@ -223,6 +208,54 @@
   </si>
   <si>
     <t>17/06/2024 9:38PM</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Sub Partner</t>
+  </si>
+  <si>
+    <t>Altaworx</t>
+  </si>
+  <si>
+    <t>Atlantech-AWX</t>
+  </si>
+  <si>
+    <t>CSV-AWX</t>
+  </si>
+  <si>
+    <t>Frontier-AWX</t>
+  </si>
+  <si>
+    <t>GoTech-AWX</t>
+  </si>
+  <si>
+    <t>Local IT-AWX</t>
+  </si>
+  <si>
+    <t>Titanium-AWX</t>
+  </si>
+  <si>
+    <t>Castle Point-AWX</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>Agent Partner Admin</t>
+  </si>
+  <si>
+    <t>Super Admin</t>
+  </si>
+  <si>
+    <t>Partner Admin</t>
+  </si>
+  <si>
+    <t>User</t>
   </si>
 </sst>
 </file>
@@ -588,16 +621,16 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
     <col min="3" max="3" width="26.21875" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" customWidth="1"/>
     <col min="7" max="7" width="14.109375" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" customWidth="1"/>
@@ -606,321 +639,321 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/public/users.xlsx
+++ b/public/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaree\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852DC60D-CFA2-4E6F-9EE9-6581137628B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2E2C25-7545-475D-99A7-F76996C920C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{07BFC873-6D7C-4001-B48B-7B65D5328514}"/>
   </bookViews>
@@ -222,27 +222,6 @@
     <t>Altaworx</t>
   </si>
   <si>
-    <t>Atlantech-AWX</t>
-  </si>
-  <si>
-    <t>CSV-AWX</t>
-  </si>
-  <si>
-    <t>Frontier-AWX</t>
-  </si>
-  <si>
-    <t>GoTech-AWX</t>
-  </si>
-  <si>
-    <t>Local IT-AWX</t>
-  </si>
-  <si>
-    <t>Titanium-AWX</t>
-  </si>
-  <si>
-    <t>Castle Point-AWX</t>
-  </si>
-  <si>
     <t>Agent</t>
   </si>
   <si>
@@ -256,6 +235,27 @@
   </si>
   <si>
     <t>User</t>
+  </si>
+  <si>
+    <t>Atlantech - AWX</t>
+  </si>
+  <si>
+    <t>Castle Point - AWX</t>
+  </si>
+  <si>
+    <t>CSV - AWX</t>
+  </si>
+  <si>
+    <t>Frontier US</t>
+  </si>
+  <si>
+    <t>GoTech - AWX</t>
+  </si>
+  <si>
+    <t>Local IT - AWX</t>
+  </si>
+  <si>
+    <t>Titanium - AWX</t>
   </si>
 </sst>
 </file>
@@ -621,7 +621,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,7 +671,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -680,7 +680,7 @@
         <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -700,7 +700,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
@@ -729,7 +729,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>26</v>
@@ -738,7 +738,7 @@
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -758,7 +758,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>27</v>
@@ -767,7 +767,7 @@
         <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -787,7 +787,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -796,7 +796,7 @@
         <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -816,7 +816,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>29</v>
@@ -825,7 +825,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -845,7 +845,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>30</v>
@@ -854,7 +854,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -874,7 +874,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>31</v>
@@ -903,7 +903,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -912,7 +912,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -932,7 +932,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -941,7 +941,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
